--- a/Python/Data/Final/bone_marrow.xlsx
+++ b/Python/Data/Final/bone_marrow.xlsx
@@ -7,24 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="AZ_missing_cts" sheetId="1" r:id="rId1"/>
+    <sheet name="Az_missing_cts" sheetId="1" r:id="rId1"/>
     <sheet name="Asctb_missing_cts" sheetId="2" r:id="rId2"/>
-    <sheet name="AZ_incorrect_cts" sheetId="3" r:id="rId3"/>
-    <sheet name="Asctb_incorrect_cts" sheetId="4" r:id="rId4"/>
-    <sheet name="AZ_ASCTB_Cts_perfect_matches" sheetId="5" r:id="rId5"/>
-    <sheet name="AZ_cts_not_found_in_ebi" sheetId="6" r:id="rId6"/>
-    <sheet name="Asctb_cts_not_found_in_ebi" sheetId="7" r:id="rId7"/>
-    <sheet name="AZ_mismatches_summary" sheetId="8" r:id="rId8"/>
-    <sheet name="Asctb_mismatches_summary" sheetId="9" r:id="rId9"/>
-    <sheet name="Asctb_cts_mismatch_final" sheetId="10" r:id="rId10"/>
-    <sheet name="AZ_cts_mismatch_final" sheetId="11" r:id="rId11"/>
+    <sheet name="Az_Asctb_cts_perfect_matches" sheetId="3" r:id="rId3"/>
+    <sheet name="Az_incorrect_cts" sheetId="4" r:id="rId4"/>
+    <sheet name="Asctb_incorrect_cts" sheetId="5" r:id="rId5"/>
+    <sheet name="Az_match_tree_corsswalk" sheetId="6" r:id="rId6"/>
+    <sheet name="Asctb_match_tree_corsswalk" sheetId="7" r:id="rId7"/>
+    <sheet name="Asctb_cts_mismatch_final" sheetId="8" r:id="rId8"/>
+    <sheet name="Az_cts_mismatch_final" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="166">
   <si>
     <t>CT/ID</t>
   </si>
@@ -32,6 +30,156 @@
     <t>CT/LABEL</t>
   </si>
   <si>
+    <t>AZ.CT/ID</t>
+  </si>
+  <si>
+    <t>AZ.CT/LABEL</t>
+  </si>
+  <si>
+    <t>ASCTB.CT/ID</t>
+  </si>
+  <si>
+    <t>ASCTB.CT/LABEL</t>
+  </si>
+  <si>
+    <t>CL:0001056</t>
+  </si>
+  <si>
+    <t>CL:0000576</t>
+  </si>
+  <si>
+    <t>CL:0000814</t>
+  </si>
+  <si>
+    <t>CL:0000945</t>
+  </si>
+  <si>
+    <t>CL:0001054</t>
+  </si>
+  <si>
+    <t>CL:0002396</t>
+  </si>
+  <si>
+    <t>CL:0000051</t>
+  </si>
+  <si>
+    <t>CL:0000764</t>
+  </si>
+  <si>
+    <t>CL:0000050</t>
+  </si>
+  <si>
+    <t>CL:0000037</t>
+  </si>
+  <si>
+    <t>CL:0000824</t>
+  </si>
+  <si>
+    <t>CL:0000837</t>
+  </si>
+  <si>
+    <t>CL:0000787</t>
+  </si>
+  <si>
+    <t>CL:0000788</t>
+  </si>
+  <si>
+    <t>CL:0000938</t>
+  </si>
+  <si>
+    <t>CL:0001058</t>
+  </si>
+  <si>
+    <t>CL:0000786</t>
+  </si>
+  <si>
+    <t>CL:0000826</t>
+  </si>
+  <si>
+    <t>CL:0000553</t>
+  </si>
+  <si>
+    <t>CL:0000818</t>
+  </si>
+  <si>
+    <t>dendritic cell</t>
+  </si>
+  <si>
+    <t>monocyte</t>
+  </si>
+  <si>
+    <t>mature NK cell</t>
+  </si>
+  <si>
+    <t>lymphocyte of B lineage</t>
+  </si>
+  <si>
+    <t>CD14-positive monocyte</t>
+  </si>
+  <si>
+    <t>CD14-low, CD16-positive monocyte</t>
+  </si>
+  <si>
+    <t>common lymphoid progenitor</t>
+  </si>
+  <si>
+    <t>erythroid lineage cell</t>
+  </si>
+  <si>
+    <t>megakaryocyte-erythroid progenitor cell</t>
+  </si>
+  <si>
+    <t>hematopoeitic stem cell</t>
+  </si>
+  <si>
+    <t>mature natural killer cell</t>
+  </si>
+  <si>
+    <t>hematopoeitic multipotent progenitor cell</t>
+  </si>
+  <si>
+    <t>memory B cell</t>
+  </si>
+  <si>
+    <t>naive B cell</t>
+  </si>
+  <si>
+    <t>CD16-negative, CD56-bright natural killer cell, human</t>
+  </si>
+  <si>
+    <t>plasmacytoid dendritic cell</t>
+  </si>
+  <si>
+    <t>plasma cell</t>
+  </si>
+  <si>
+    <t>pro-B cell</t>
+  </si>
+  <si>
+    <t>megakaryocyte progenitor cell</t>
+  </si>
+  <si>
+    <t>transitional stage B cell</t>
+  </si>
+  <si>
+    <t>dendritic cell, human</t>
+  </si>
+  <si>
+    <t>mature NK T cell</t>
+  </si>
+  <si>
+    <t>hemopoietic stem cell</t>
+  </si>
+  <si>
+    <t>hematopoietic multipotent progenitor cell</t>
+  </si>
+  <si>
+    <t>CD16-negative, CD56-bright natural killer cell</t>
+  </si>
+  <si>
+    <t>plasmacytoid dendritic cell, human</t>
+  </si>
+  <si>
     <t>CL_CL:0002399</t>
   </si>
   <si>
@@ -42,156 +190,6 @@
   </si>
   <si>
     <t>precursor B cell</t>
-  </si>
-  <si>
-    <t>AZ.CT/ID</t>
-  </si>
-  <si>
-    <t>AZ.CT/LABEL</t>
-  </si>
-  <si>
-    <t>ASCTB.CT/ID</t>
-  </si>
-  <si>
-    <t>ASCTB.CT/LABEL</t>
-  </si>
-  <si>
-    <t>CL:0001056</t>
-  </si>
-  <si>
-    <t>CL:0000576</t>
-  </si>
-  <si>
-    <t>CL:0000814</t>
-  </si>
-  <si>
-    <t>CL:0000945</t>
-  </si>
-  <si>
-    <t>CL:0001054</t>
-  </si>
-  <si>
-    <t>CL:0002396</t>
-  </si>
-  <si>
-    <t>CL:0000051</t>
-  </si>
-  <si>
-    <t>CL:0000764</t>
-  </si>
-  <si>
-    <t>CL:0000050</t>
-  </si>
-  <si>
-    <t>CL:0000037</t>
-  </si>
-  <si>
-    <t>CL:0000824</t>
-  </si>
-  <si>
-    <t>CL:0000837</t>
-  </si>
-  <si>
-    <t>CL:0000787</t>
-  </si>
-  <si>
-    <t>CL:0000788</t>
-  </si>
-  <si>
-    <t>CL:0000938</t>
-  </si>
-  <si>
-    <t>CL:0001058</t>
-  </si>
-  <si>
-    <t>CL:0000786</t>
-  </si>
-  <si>
-    <t>CL:0000826</t>
-  </si>
-  <si>
-    <t>CL:0000553</t>
-  </si>
-  <si>
-    <t>CL:0000818</t>
-  </si>
-  <si>
-    <t>dendritic cell</t>
-  </si>
-  <si>
-    <t>monocyte</t>
-  </si>
-  <si>
-    <t>mature NK cell</t>
-  </si>
-  <si>
-    <t>lymphocyte of B lineage</t>
-  </si>
-  <si>
-    <t>CD14-positive monocyte</t>
-  </si>
-  <si>
-    <t>CD14-low, CD16-positive monocyte</t>
-  </si>
-  <si>
-    <t>common lymphoid progenitor</t>
-  </si>
-  <si>
-    <t>erythroid lineage cell</t>
-  </si>
-  <si>
-    <t>megakaryocyte-erythroid progenitor cell</t>
-  </si>
-  <si>
-    <t>hematopoeitic stem cell</t>
-  </si>
-  <si>
-    <t>mature natural killer cell</t>
-  </si>
-  <si>
-    <t>hematopoeitic multipotent progenitor cell</t>
-  </si>
-  <si>
-    <t>memory B cell</t>
-  </si>
-  <si>
-    <t>naive B cell</t>
-  </si>
-  <si>
-    <t>CD16-negative, CD56-bright natural killer cell, human</t>
-  </si>
-  <si>
-    <t>plasmacytoid dendritic cell</t>
-  </si>
-  <si>
-    <t>plasma cell</t>
-  </si>
-  <si>
-    <t>pro-B cell</t>
-  </si>
-  <si>
-    <t>megakaryocyte progenitor cell</t>
-  </si>
-  <si>
-    <t>transitional stage B cell</t>
-  </si>
-  <si>
-    <t>dendritic cell, human</t>
-  </si>
-  <si>
-    <t>mature NK T cell</t>
-  </si>
-  <si>
-    <t>hemopoietic stem cell</t>
-  </si>
-  <si>
-    <t>hematopoietic multipotent progenitor cell</t>
-  </si>
-  <si>
-    <t>CD16-negative, CD56-bright natural killer cell</t>
-  </si>
-  <si>
-    <t>plasmacytoid dendritic cell, human</t>
   </si>
   <si>
     <t>Match Found</t>
@@ -898,208 +896,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
@@ -1123,6 +919,313 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1139,18 +1242,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1179,372 +1282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -1554,19 +1292,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>57</v>
@@ -1885,10 +1623,10 @@
         <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1994,7 +1732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -2004,19 +1742,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>57</v>
@@ -2122,16 +1860,16 @@
         <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -2151,10 +1889,10 @@
         <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -2414,6 +2152,208 @@
       </c>
       <c r="G18" t="s">
         <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Data/Final/bone_marrow.xlsx
+++ b/Python/Data/Final/bone_marrow.xlsx
@@ -1226,7 +1226,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1240,19 +1240,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Python/Data/Final/bone_marrow.xlsx
+++ b/Python/Data/Final/bone_marrow.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="258">
   <si>
     <t>CT/ID</t>
   </si>
@@ -30,18 +30,27 @@
     <t>CT/LABEL</t>
   </si>
   <si>
+    <t>CT/LABEL.Author</t>
+  </si>
+  <si>
     <t>AZ.CT/ID</t>
   </si>
   <si>
     <t>AZ.CT/LABEL</t>
   </si>
   <si>
+    <t>AZ.CT/LABEL.Author</t>
+  </si>
+  <si>
     <t>ASCTB.CT/ID</t>
   </si>
   <si>
     <t>ASCTB.CT/LABEL</t>
   </si>
   <si>
+    <t>ASCTB.CT/LABEL.Author</t>
+  </si>
+  <si>
     <t>CL:0001056</t>
   </si>
   <si>
@@ -162,6 +171,75 @@
     <t>transitional stage B cell</t>
   </si>
   <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Mono</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>ASDC</t>
+  </si>
+  <si>
+    <t>CD14 Mono</t>
+  </si>
+  <si>
+    <t>CD16 Mono</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>Early Eryth</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>HSC</t>
+  </si>
+  <si>
+    <t>ILC</t>
+  </si>
+  <si>
+    <t>Late Eryth</t>
+  </si>
+  <si>
+    <t>LMPP</t>
+  </si>
+  <si>
+    <t>Memory B</t>
+  </si>
+  <si>
+    <t>Naive B</t>
+  </si>
+  <si>
+    <t>NK CD56+</t>
+  </si>
+  <si>
+    <t>NK Proliferating</t>
+  </si>
+  <si>
+    <t>pDC</t>
+  </si>
+  <si>
+    <t>Plasma</t>
+  </si>
+  <si>
+    <t>pro B</t>
+  </si>
+  <si>
+    <t>Prog Mk</t>
+  </si>
+  <si>
+    <t>transitional B</t>
+  </si>
+  <si>
     <t>dendritic cell, human</t>
   </si>
   <si>
@@ -180,6 +258,69 @@
     <t>plasmacytoid dendritic cell, human</t>
   </si>
   <si>
+    <t>dendritic cell (DC)</t>
+  </si>
+  <si>
+    <t>dendritic cell type 3 (DC3)</t>
+  </si>
+  <si>
+    <t>NK lymphocytes</t>
+  </si>
+  <si>
+    <t>B lineage</t>
+  </si>
+  <si>
+    <t>CD14 monocyte</t>
+  </si>
+  <si>
+    <t>CD16 monocyte</t>
+  </si>
+  <si>
+    <t>common lymphoid progenitor (CLP)</t>
+  </si>
+  <si>
+    <t>erythroid</t>
+  </si>
+  <si>
+    <t>early erythroid</t>
+  </si>
+  <si>
+    <t>mid erythroid</t>
+  </si>
+  <si>
+    <t>late erythroid</t>
+  </si>
+  <si>
+    <t>megakaryocyte-erythroid-mast cell progenitor (MEMP)</t>
+  </si>
+  <si>
+    <t>hemopoietic stem cell (HSC)</t>
+  </si>
+  <si>
+    <t>mature Natural killer</t>
+  </si>
+  <si>
+    <t>hemopoietic stem cell/multipotent progenitor (HSC/MPP)</t>
+  </si>
+  <si>
+    <t>multipotent progenitor cell (MPP)</t>
+  </si>
+  <si>
+    <t>CD56 bright Natural Killer</t>
+  </si>
+  <si>
+    <t>Plasmacytoid Dendritic Cell (pDC)</t>
+  </si>
+  <si>
+    <t>pro B progenitor</t>
+  </si>
+  <si>
+    <t>early Megakaryocyte (MK)</t>
+  </si>
+  <si>
+    <t>transitional B cell</t>
+  </si>
+  <si>
     <t>CL_CL:0002399</t>
   </si>
   <si>
@@ -192,6 +333,63 @@
     <t>precursor B cell</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>other T</t>
+  </si>
+  <si>
+    <t>CD8 Effector_1</t>
+  </si>
+  <si>
+    <t>CD8 Effector_2</t>
+  </si>
+  <si>
+    <t>CD8 Effector_3</t>
+  </si>
+  <si>
+    <t>cDC2</t>
+  </si>
+  <si>
+    <t>pre B</t>
+  </si>
+  <si>
+    <t>T Proliferating</t>
+  </si>
+  <si>
+    <t>Megakaryocyte (MK)</t>
+  </si>
+  <si>
+    <t>granulocyte-macrophage progenitor cell (GMP)</t>
+  </si>
+  <si>
+    <t>lympho-myeloid progenitor cell (LMPP)</t>
+  </si>
+  <si>
+    <t>Myeloid progenitor (MOP)</t>
+  </si>
+  <si>
+    <t>CD4 na√Øve</t>
+  </si>
+  <si>
+    <t>CD4 T cell memory</t>
+  </si>
+  <si>
+    <t>CD4 T cell effector memory CD45RA</t>
+  </si>
+  <si>
+    <t>CD8 na√Øve</t>
+  </si>
+  <si>
+    <t>CD8 T cell memory</t>
+  </si>
+  <si>
+    <t>CD8 T cell effector memory</t>
+  </si>
+  <si>
+    <t>mature CD8 T cell</t>
+  </si>
+  <si>
     <t>Match Found</t>
   </si>
   <si>
@@ -309,6 +507,57 @@
     <t>stromal cell</t>
   </si>
   <si>
+    <t>HSPC</t>
+  </si>
+  <si>
+    <t>CD4 T</t>
+  </si>
+  <si>
+    <t>CD8 T</t>
+  </si>
+  <si>
+    <t>BaEoMa</t>
+  </si>
+  <si>
+    <t>CD4 Effector</t>
+  </si>
+  <si>
+    <t>CD4 Memory</t>
+  </si>
+  <si>
+    <t>CD4 Naive</t>
+  </si>
+  <si>
+    <t>CD8 Memory</t>
+  </si>
+  <si>
+    <t>CD8 Naive</t>
+  </si>
+  <si>
+    <t>cDC1</t>
+  </si>
+  <si>
+    <t>GMP</t>
+  </si>
+  <si>
+    <t>Macrophage</t>
+  </si>
+  <si>
+    <t>MAIT</t>
+  </si>
+  <si>
+    <t>Platelet</t>
+  </si>
+  <si>
+    <t>pre-mDC</t>
+  </si>
+  <si>
+    <t>pre-pDC</t>
+  </si>
+  <si>
+    <t>Stromal</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -469,6 +718,33 @@
   </si>
   <si>
     <t>regulatory T cell</t>
+  </si>
+  <si>
+    <t>neutrophilic granulocyte</t>
+  </si>
+  <si>
+    <t>T lymphocytes</t>
+  </si>
+  <si>
+    <t>precursor B cell (pre B cell)</t>
+  </si>
+  <si>
+    <t>dendritic cell type 1 (DC1)</t>
+  </si>
+  <si>
+    <t>dendritic cell type 2 (DC2)</t>
+  </si>
+  <si>
+    <t>transitionalDendritic Cell (tDC)</t>
+  </si>
+  <si>
+    <t>common myeloid progenitor (CMP)</t>
+  </si>
+  <si>
+    <t>CD8 T cell effector memory CD45RA</t>
+  </si>
+  <si>
+    <t>T regulatory</t>
   </si>
   <si>
     <t>CL:0000556 (Megakaryocyte) &gt;&gt; CL:1001610 (bone marrow hematopoietic cell) &gt;&gt; CL:0002092 (bone marrow cell) &gt;&gt; CL:0001035 (bone cell) &gt;&gt; BFO:0000004 (independent continuant) &gt;&gt; BFO:0000002 (continuant)</t>
@@ -877,18 +1153,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -898,18 +1177,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -919,125 +1201,173 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1045,13 +1375,19 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1059,13 +1395,19 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1073,13 +1415,19 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1087,136 +1435,436 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B26" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E30" t="s">
         <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1226,34 +1874,73 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1263,18 +1950,76 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1284,447 +2029,504 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="G13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15">
+      <c r="H18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19">
         <v>2</v>
       </c>
-      <c r="G15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>117</v>
+      <c r="H19" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1734,424 +2536,530 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>123</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2">
+        <v>180</v>
+      </c>
+      <c r="F2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3">
+        <v>180</v>
+      </c>
+      <c r="F3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4">
+        <v>180</v>
+      </c>
+      <c r="F4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5">
+        <v>180</v>
+      </c>
+      <c r="F5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>165</v>
+      <c r="H20" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2161,106 +3069,164 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>219</v>
+      </c>
+      <c r="C4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>182</v>
+      </c>
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>222</v>
+      </c>
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>218</v>
+      </c>
+      <c r="C9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>227</v>
+      </c>
+      <c r="C10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>229</v>
+      </c>
+      <c r="C12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2270,90 +3236,120 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Data/Final/bone_marrow.xlsx
+++ b/Python/Data/Final/bone_marrow.xlsx
@@ -14,13 +14,14 @@
     <sheet name="Asctb_match_tree_crosswalk" sheetId="5" r:id="rId5"/>
     <sheet name="Az_cts_mismatch_final" sheetId="6" r:id="rId6"/>
     <sheet name="Asctb_cts_mismatch_final" sheetId="7" r:id="rId7"/>
+    <sheet name="Final_Matches" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="227">
   <si>
     <t>AZ.CT/ID</t>
   </si>
@@ -2574,4 +2575,305 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>